--- a/Metadata_Schema_for_openBIS.xlsx
+++ b/Metadata_Schema_for_openBIS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8355" tabRatio="699" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22050" windowHeight="8355" tabRatio="699"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata Schema" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5796" uniqueCount="1756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="1755">
   <si>
     <t>duration</t>
   </si>
@@ -5295,9 +5295,6 @@
   </si>
   <si>
     <t>depositionTime</t>
-  </si>
-  <si>
-    <t>empa-hasProperty-number</t>
   </si>
 </sst>
 </file>
@@ -6330,8 +6327,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J634"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -25794,8 +25791,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -26639,9 +26636,7 @@
       <c r="A80" s="35" t="s">
         <v>1746</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>1755</v>
-      </c>
+      <c r="B80" s="7"/>
       <c r="C80" t="s">
         <v>1090</v>
       </c>
